--- a/Rjeb Zied/BDD/EX1 ZCA.xlsx
+++ b/Rjeb Zied/BDD/EX1 ZCA.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-95-08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-95-11\Rjeb Zied\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>Plage</t>
   </si>
@@ -162,13 +163,67 @@
   </si>
   <si>
     <t>Numéro de la Région</t>
+  </si>
+  <si>
+    <t>IdNatureTerrain</t>
+  </si>
+  <si>
+    <t>NatureDeTerrain</t>
+  </si>
+  <si>
+    <t>Plages</t>
+  </si>
+  <si>
+    <t>NatureTerrains</t>
+  </si>
+  <si>
+    <t>IdPlage</t>
+  </si>
+  <si>
+    <t>NombreKilometres</t>
+  </si>
+  <si>
+    <t>IdVille</t>
+  </si>
+  <si>
+    <t>detenir</t>
+  </si>
+  <si>
+    <t>Nomville</t>
+  </si>
+  <si>
+    <t>NombreTouristesParAn</t>
+  </si>
+  <si>
+    <t>IdDepartement</t>
+  </si>
+  <si>
+    <t>NomDepartement</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>IdRegion</t>
+  </si>
+  <si>
+    <t>NomRegion</t>
+  </si>
+  <si>
+    <t>Departements</t>
+  </si>
+  <si>
+    <t>IdResponsable</t>
+  </si>
+  <si>
+    <t>PrenomResponsable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +240,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -232,12 +329,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -763,4 +881,344 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>